--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_7_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_7_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.68000000000058</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -585,11 +585,11 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>57.62104349972493</v>
+        <v>58.12255376144019</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[53.087554321682994, 62.15453267776686]</t>
+          <t>[53.604596449494046, 62.64051107338634]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.641552918091965</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.566079220708426, 1.717026615475504]</t>
+          <t>[1.478026573760963, 1.628973968528041]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.71239138543078</v>
+        <v>54.50167644424064</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.6810870230789, 55.74369574778267]</t>
+          <t>[51.457545266856904, 57.545807621624384]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.97081081081123</v>
+        <v>19.24788788788831</v>
       </c>
       <c r="X2" t="n">
-        <v>18.66234234234275</v>
+        <v>18.94074074074116</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.27927927927971</v>
+        <v>19.55503503503547</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.38000000000053</v>
+        <v>25.48000000000054</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -666,11 +666,11 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>56.55400402354262</v>
+        <v>57.86984691193629</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[51.06513567899771, 62.04287236808754]</t>
+          <t>[52.82706465406821, 62.912629169804376]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.075500187715424</v>
+        <v>1.276763380738194</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.9748685912040402, 1.1761317842268086]</t>
+          <t>[1.1887107337907326, 1.364816027685655]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.17515375262586</v>
+        <v>53.5828118785227</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.25009680952638, 55.10021069572534]</t>
+          <t>[50.65724641341785, 56.50837734362756]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.03567567567611</v>
+        <v>20.30238238238282</v>
       </c>
       <c r="X3" t="n">
-        <v>20.62918918918962</v>
+        <v>19.94530530530573</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.44216216216261</v>
+        <v>20.6594594594599</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_7_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_7_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.57000000000056</v>
+        <v>25.69000000000058</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.691768418476429e-16</v>
+        <v>1.694996984160544e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>58.12255376144019</v>
+        <v>53.88367368991787</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[53.604596449494046, 62.64051107338634]</t>
+          <t>[49.34565219007651, 58.421695189759234]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.553500271144502</v>
+        <v>1.641552918091965</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.478026573760963, 1.628973968528041]</t>
+          <t>[1.5409213215805817, 1.7421845146033483]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.50167644424064</v>
+        <v>51.98091564306591</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.457545266856904, 57.545807621624384]</t>
+          <t>[48.94193622112284, 55.019895065008974]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.24788788788831</v>
+        <v>18.97819819819862</v>
       </c>
       <c r="X2" t="n">
-        <v>18.94074074074116</v>
+        <v>18.56674674674716</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.55503503503547</v>
+        <v>19.38964964965007</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.48000000000054</v>
+        <v>25.41000000000053</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.691768418476429e-16</v>
+        <v>1.694996984160544e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>57.86984691193629</v>
+        <v>59.9827218716176</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[52.82706465406821, 62.912629169804376]</t>
+          <t>[54.79092964445289, 65.17451409878231]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.276763380738194</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 1.364816027685655]</t>
+          <t>[1.0629212381515014, 1.2390265320464255]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.5828118785227</v>
+        <v>54.40146077205697</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.65724641341785, 56.50837734362756]</t>
+          <t>[51.513296871888826, 57.289624672225116]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.30238238238282</v>
+        <v>20.75531531531575</v>
       </c>
       <c r="X3" t="n">
-        <v>19.94530530530573</v>
+        <v>20.39921921921964</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.6594594594599</v>
+        <v>21.11141141141185</v>
       </c>
     </row>
   </sheetData>
